--- a/data/WEST_AFRICA/WESTAFRICA_station_loc.xlsx
+++ b/data/WEST_AFRICA/WESTAFRICA_station_loc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrobledodelgado/Documents/GitHub/FFWestAfrica/data/WEST_AFRICA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrobledodelgado/Documents/GitHub/FFWestAfrica/DATA/WEST_AFRICA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43376FB0-C74A-7249-B519-33727E252173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367BC38F-1065-CF4C-8B3E-64610FADC6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="760" windowWidth="28440" windowHeight="17780" xr2:uid="{187473D9-3CBC-734B-AEA7-78513CCAC504}"/>
+    <workbookView xWindow="5120" yWindow="760" windowWidth="24860" windowHeight="17780" xr2:uid="{187473D9-3CBC-734B-AEA7-78513CCAC504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,11 +398,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,12 +739,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC32E161-43D0-3D49-A75F-6131282DF875}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -2621,7 +2622,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>1006003</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -2648,7 +2649,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>1006007</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -2695,14 +2696,14 @@
         <v>9.6</v>
       </c>
       <c r="H70" s="9">
-        <v>-0.31666699999999998</v>
+        <v>0.23717804000000001</v>
       </c>
       <c r="I70" s="9">
-        <v>9.6</v>
+        <v>9.5707916999999991</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>3000003</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -2756,7 +2757,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>5000001</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -2783,7 +2784,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>9000005</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -2810,7 +2811,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>9000008</v>
       </c>
       <c r="B75" s="6" t="s">

--- a/data/WEST_AFRICA/WESTAFRICA_station_loc.xlsx
+++ b/data/WEST_AFRICA/WESTAFRICA_station_loc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrobledodelgado/Documents/GitHub/FFWestAfrica/DATA/WEST_AFRICA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367BC38F-1065-CF4C-8B3E-64610FADC6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5625DB-E633-9C44-84F9-D5A63E40779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="760" windowWidth="24860" windowHeight="17780" xr2:uid="{187473D9-3CBC-734B-AEA7-78513CCAC504}"/>
+    <workbookView xWindow="5120" yWindow="760" windowWidth="24860" windowHeight="17760" xr2:uid="{187473D9-3CBC-734B-AEA7-78513CCAC504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC32E161-43D0-3D49-A75F-6131282DF875}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70:I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2696,10 +2696,10 @@
         <v>9.6</v>
       </c>
       <c r="H70" s="9">
-        <v>0.23717804000000001</v>
+        <v>0.31698228978356002</v>
       </c>
       <c r="I70" s="9">
-        <v>9.5707916999999991</v>
+        <v>9.6041253208970296</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
